--- a/Reports/Windows_Manual.xlsx
+++ b/Reports/Windows_Manual.xlsx
@@ -38,16 +38,16 @@
     <t>Tests/Windows/manual/ChromeManualTest.MD</t>
   </si>
   <si>
-    <t>08/13/21 14:06:47</t>
-  </si>
-  <si>
-    <t>Not executed</t>
+    <t>12/21/21 14:06:47</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Not executed</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -138,15 +138,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -154,10 +154,10 @@
     </row>
     <row r="4">
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">

--- a/Reports/Windows_Manual.xlsx
+++ b/Reports/Windows_Manual.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Manual_002</t>
+  </si>
+  <si>
+    <t>Firefox manual</t>
+  </si>
+  <si>
+    <t>Tests/Windows/manual/FireFoxmanualTest.MD</t>
   </si>
   <si>
     <t>Fail</t>
@@ -141,12 +150,27 @@
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -154,7 +178,7 @@
     </row>
     <row r="4">
       <c r="F4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -162,7 +186,7 @@
     </row>
     <row r="5">
       <c r="F5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -170,10 +194,10 @@
     </row>
     <row r="6">
       <c r="F6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Windows_Manual.xlsx
+++ b/Reports/Windows_Manual.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -38,19 +38,22 @@
     <t>Tests/Windows/manual/ChromeManualTest.MD</t>
   </si>
   <si>
+    <t>12/21/21 15:06:47</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Manual_002</t>
+  </si>
+  <si>
+    <t>Firefox manual</t>
+  </si>
+  <si>
+    <t>Tests/Windows/manual/FireFoxmanualTest.MD</t>
+  </si>
+  <si>
     <t>12/21/21 14:06:47</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Manual_002</t>
-  </si>
-  <si>
-    <t>Firefox manual</t>
-  </si>
-  <si>
-    <t>Tests/Windows/manual/FireFoxmanualTest.MD</t>
   </si>
   <si>
     <t>Fail</t>
@@ -164,13 +167,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -178,7 +181,7 @@
     </row>
     <row r="4">
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -186,7 +189,7 @@
     </row>
     <row r="5">
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -194,7 +197,7 @@
     </row>
     <row r="6">
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
         <v>2.0</v>
